--- a/data/pca/factorExposure/factorExposure_2015-12-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0157032279180851</v>
+        <v>0.01609174220541628</v>
       </c>
       <c r="C2">
-        <v>0.03068196812719641</v>
+        <v>0.03359299055730446</v>
       </c>
       <c r="D2">
-        <v>0.09032133539387806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1216643254388669</v>
+      </c>
+      <c r="E2">
+        <v>0.06716645022452906</v>
+      </c>
+      <c r="F2">
+        <v>0.02387022519269739</v>
+      </c>
+      <c r="G2">
+        <v>-0.06592428218131863</v>
+      </c>
+      <c r="H2">
+        <v>-0.0957804172760528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01749788741668444</v>
+        <v>0.0106329110776409</v>
       </c>
       <c r="C3">
-        <v>0.05230352492160312</v>
+        <v>0.03572906853911167</v>
       </c>
       <c r="D3">
-        <v>0.1243659280501302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07409191282209861</v>
+      </c>
+      <c r="E3">
+        <v>0.0453363237368845</v>
+      </c>
+      <c r="F3">
+        <v>0.03845034731696125</v>
+      </c>
+      <c r="G3">
+        <v>-0.09307541993731538</v>
+      </c>
+      <c r="H3">
+        <v>-0.01805260964583141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05034110557266035</v>
+        <v>0.05419505396213523</v>
       </c>
       <c r="C4">
-        <v>0.04127414660424285</v>
+        <v>0.06425467745415397</v>
       </c>
       <c r="D4">
-        <v>0.1319786744275005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1449306098233573</v>
+      </c>
+      <c r="E4">
+        <v>0.05505602317981255</v>
+      </c>
+      <c r="F4">
+        <v>0.01377431179401939</v>
+      </c>
+      <c r="G4">
+        <v>0.03657402723483804</v>
+      </c>
+      <c r="H4">
+        <v>0.02322698477453861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04254267326167466</v>
+        <v>0.03959945631582609</v>
       </c>
       <c r="C6">
-        <v>0.007628510385996244</v>
+        <v>0.02589737341787664</v>
       </c>
       <c r="D6">
-        <v>0.1349225091160999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.133438573176411</v>
+      </c>
+      <c r="E6">
+        <v>0.03088001180348143</v>
+      </c>
+      <c r="F6">
+        <v>0.01280255896552878</v>
+      </c>
+      <c r="G6">
+        <v>-0.009251952177380353</v>
+      </c>
+      <c r="H6">
+        <v>-0.01831581574160992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0196887901477247</v>
+        <v>0.01525003236827294</v>
       </c>
       <c r="C7">
-        <v>0.01481639955864595</v>
+        <v>0.02952252545900578</v>
       </c>
       <c r="D7">
-        <v>0.09493850807660065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09423957600934513</v>
+      </c>
+      <c r="E7">
+        <v>0.03043953963007779</v>
+      </c>
+      <c r="F7">
+        <v>0.01574900088403364</v>
+      </c>
+      <c r="G7">
+        <v>0.009350801260037431</v>
+      </c>
+      <c r="H7">
+        <v>-0.1134597431590998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00838709982326004</v>
+        <v>0.006061098766959028</v>
       </c>
       <c r="C8">
-        <v>0.02884475942072797</v>
+        <v>0.03735836283293107</v>
       </c>
       <c r="D8">
-        <v>0.05312207722857685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07366055414921799</v>
+      </c>
+      <c r="E8">
+        <v>0.03730192619709998</v>
+      </c>
+      <c r="F8">
+        <v>0.03993271598129472</v>
+      </c>
+      <c r="G8">
+        <v>-0.01107841220882851</v>
+      </c>
+      <c r="H8">
+        <v>-0.04759550162907114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0413883180406952</v>
+        <v>0.04246233165595013</v>
       </c>
       <c r="C9">
-        <v>0.03980003980410948</v>
+        <v>0.05885028622775702</v>
       </c>
       <c r="D9">
-        <v>0.1144161868892023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1224067879138734</v>
+      </c>
+      <c r="E9">
+        <v>0.03790308335585386</v>
+      </c>
+      <c r="F9">
+        <v>-0.001304970561147557</v>
+      </c>
+      <c r="G9">
+        <v>0.02764313742954058</v>
+      </c>
+      <c r="H9">
+        <v>-0.008317296003620911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09776946935741811</v>
+        <v>0.137165750905787</v>
       </c>
       <c r="C10">
-        <v>-0.1935909545467255</v>
+        <v>-0.1883100687333762</v>
       </c>
       <c r="D10">
-        <v>-0.000498692741390814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0007420911571403193</v>
+      </c>
+      <c r="E10">
+        <v>0.04503313284198636</v>
+      </c>
+      <c r="F10">
+        <v>0.02011104587142743</v>
+      </c>
+      <c r="G10">
+        <v>0.03565498416874106</v>
+      </c>
+      <c r="H10">
+        <v>0.003462551874601615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03347851319700781</v>
+        <v>0.02829005962869956</v>
       </c>
       <c r="C11">
-        <v>0.03948478277999402</v>
+        <v>0.04328129460873267</v>
       </c>
       <c r="D11">
-        <v>0.05933742663628769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05798350642190934</v>
+      </c>
+      <c r="E11">
+        <v>-0.004419248132879155</v>
+      </c>
+      <c r="F11">
+        <v>0.0006724882916336151</v>
+      </c>
+      <c r="G11">
+        <v>0.002117136217165292</v>
+      </c>
+      <c r="H11">
+        <v>-0.05005478387174753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03873254389061202</v>
+        <v>0.03402797345728509</v>
       </c>
       <c r="C12">
-        <v>0.04158350198491569</v>
+        <v>0.0457591153975755</v>
       </c>
       <c r="D12">
-        <v>0.06178407082059605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05847114600076976</v>
+      </c>
+      <c r="E12">
+        <v>0.003828751392876516</v>
+      </c>
+      <c r="F12">
+        <v>-0.00745366625129571</v>
+      </c>
+      <c r="G12">
+        <v>0.00247812278915425</v>
+      </c>
+      <c r="H12">
+        <v>-0.06174455154772399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01777567960881187</v>
+        <v>0.01846010699135293</v>
       </c>
       <c r="C13">
-        <v>0.02691067035514955</v>
+        <v>0.03756869877905104</v>
       </c>
       <c r="D13">
-        <v>0.1267079158840004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.146609505450415</v>
+      </c>
+      <c r="E13">
+        <v>0.04989897121600202</v>
+      </c>
+      <c r="F13">
+        <v>0.03227355500792625</v>
+      </c>
+      <c r="G13">
+        <v>-0.003811480755745172</v>
+      </c>
+      <c r="H13">
+        <v>-0.1021675246918684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009474136327734237</v>
+        <v>0.007045254656136138</v>
       </c>
       <c r="C14">
-        <v>0.01991658780781161</v>
+        <v>0.02435884340650105</v>
       </c>
       <c r="D14">
-        <v>0.07995107158578714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08520479827968359</v>
+      </c>
+      <c r="E14">
+        <v>0.03589290976109194</v>
+      </c>
+      <c r="F14">
+        <v>-0.01070442134328553</v>
+      </c>
+      <c r="G14">
+        <v>-0.005199423789144746</v>
+      </c>
+      <c r="H14">
+        <v>-0.1081439447092419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001247943119774134</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.009521000159305562</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03030960917408087</v>
+      </c>
+      <c r="E15">
+        <v>0.006350590424847123</v>
+      </c>
+      <c r="F15">
+        <v>-0.001632042295098836</v>
+      </c>
+      <c r="G15">
+        <v>-0.009318007093084458</v>
+      </c>
+      <c r="H15">
+        <v>-0.01074350633041776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03380852276485709</v>
+        <v>0.02906217247017482</v>
       </c>
       <c r="C16">
-        <v>0.04021235971104945</v>
+        <v>0.04297969218002003</v>
       </c>
       <c r="D16">
-        <v>0.06914605438552869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06156739826575318</v>
+      </c>
+      <c r="E16">
+        <v>0.008128319352044203</v>
+      </c>
+      <c r="F16">
+        <v>-0.007095795240794796</v>
+      </c>
+      <c r="G16">
+        <v>0.000793958759621012</v>
+      </c>
+      <c r="H16">
+        <v>-0.06207873384015553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009797613391133581</v>
+        <v>0.006755373465085176</v>
       </c>
       <c r="C19">
-        <v>0.0231543771521046</v>
+        <v>0.02013479333636046</v>
       </c>
       <c r="D19">
-        <v>0.1608813604937679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1257442674377296</v>
+      </c>
+      <c r="E19">
+        <v>0.06523501715786964</v>
+      </c>
+      <c r="F19">
+        <v>-0.009768627898720669</v>
+      </c>
+      <c r="G19">
+        <v>-0.01650566010152608</v>
+      </c>
+      <c r="H19">
+        <v>-0.06822607340303187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02037732607479333</v>
+        <v>0.01643852013644409</v>
       </c>
       <c r="C20">
-        <v>0.0233668703872432</v>
+        <v>0.03243958466358429</v>
       </c>
       <c r="D20">
-        <v>0.08853538211099043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09951725283390589</v>
+      </c>
+      <c r="E20">
+        <v>0.05138562229112427</v>
+      </c>
+      <c r="F20">
+        <v>-0.005041036903969667</v>
+      </c>
+      <c r="G20">
+        <v>0.001139332169947726</v>
+      </c>
+      <c r="H20">
+        <v>-0.05983885114720055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01342693441720506</v>
+        <v>0.01411780382407297</v>
       </c>
       <c r="C21">
-        <v>0.02851747046204689</v>
+        <v>0.03656977729449513</v>
       </c>
       <c r="D21">
-        <v>0.1310827669682499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1412594683135553</v>
+      </c>
+      <c r="E21">
+        <v>0.08921699164950256</v>
+      </c>
+      <c r="F21">
+        <v>-0.002580556769631689</v>
+      </c>
+      <c r="G21">
+        <v>0.03234675969634971</v>
+      </c>
+      <c r="H21">
+        <v>-0.1219648855633352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.00600485645111694</v>
+        <v>0.005548059278245026</v>
       </c>
       <c r="C22">
-        <v>0.02817518020905794</v>
+        <v>0.03993037564331908</v>
       </c>
       <c r="D22">
-        <v>0.08370033378865069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1405582536003745</v>
+      </c>
+      <c r="E22">
+        <v>0.02962576856553764</v>
+      </c>
+      <c r="F22">
+        <v>0.08507783874486703</v>
+      </c>
+      <c r="G22">
+        <v>-0.07194038945835737</v>
+      </c>
+      <c r="H22">
+        <v>0.04846064371796605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.006095129350161493</v>
+        <v>0.005648385718558447</v>
       </c>
       <c r="C23">
-        <v>0.02807410930314696</v>
+        <v>0.04038388492161671</v>
       </c>
       <c r="D23">
-        <v>0.08309771642825384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1400020050648974</v>
+      </c>
+      <c r="E23">
+        <v>0.02990617423732526</v>
+      </c>
+      <c r="F23">
+        <v>0.08503662748721695</v>
+      </c>
+      <c r="G23">
+        <v>-0.07098404199701863</v>
+      </c>
+      <c r="H23">
+        <v>0.04864002317568732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03420178559621197</v>
+        <v>0.03063805322125255</v>
       </c>
       <c r="C24">
-        <v>0.0459122324046744</v>
+        <v>0.05455541740879363</v>
       </c>
       <c r="D24">
-        <v>0.06900641374118818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06664941056219714</v>
+      </c>
+      <c r="E24">
+        <v>0.01329302572487674</v>
+      </c>
+      <c r="F24">
+        <v>-0.006000633343052497</v>
+      </c>
+      <c r="G24">
+        <v>0.01129879670716497</v>
+      </c>
+      <c r="H24">
+        <v>-0.07384118015082251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04037209851361126</v>
+        <v>0.03568614079953165</v>
       </c>
       <c r="C25">
-        <v>0.04806100647652929</v>
+        <v>0.05264154727600124</v>
       </c>
       <c r="D25">
-        <v>0.06750902984972627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06277512740201098</v>
+      </c>
+      <c r="E25">
+        <v>0.01315639486022878</v>
+      </c>
+      <c r="F25">
+        <v>-0.0004295102863982141</v>
+      </c>
+      <c r="G25">
+        <v>0.01036965427111437</v>
+      </c>
+      <c r="H25">
+        <v>-0.05577452116504023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02075249627612701</v>
+        <v>0.0185236087612005</v>
       </c>
       <c r="C26">
-        <v>0.007629337617243746</v>
+        <v>0.01754340762559791</v>
       </c>
       <c r="D26">
-        <v>0.05103505175675935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0634546419377847</v>
+      </c>
+      <c r="E26">
+        <v>0.0261624193408178</v>
+      </c>
+      <c r="F26">
+        <v>0.00107020942622514</v>
+      </c>
+      <c r="G26">
+        <v>-0.003176722435940136</v>
+      </c>
+      <c r="H26">
+        <v>-0.06698939483687295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1456094383719555</v>
+        <v>0.1950086875519032</v>
       </c>
       <c r="C28">
-        <v>-0.2737706834055751</v>
+        <v>-0.2544608091855604</v>
       </c>
       <c r="D28">
-        <v>-0.03443981604987851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01416872596088048</v>
+      </c>
+      <c r="E28">
+        <v>0.07206963683874411</v>
+      </c>
+      <c r="F28">
+        <v>0.001837391685978122</v>
+      </c>
+      <c r="G28">
+        <v>0.06709456707383311</v>
+      </c>
+      <c r="H28">
+        <v>-0.009527030362347437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005403225491682378</v>
+        <v>0.006065400080334077</v>
       </c>
       <c r="C29">
-        <v>0.0190645721185766</v>
+        <v>0.0224449290582873</v>
       </c>
       <c r="D29">
-        <v>0.06597665974471453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08079513851308961</v>
+      </c>
+      <c r="E29">
+        <v>0.03305321282493253</v>
+      </c>
+      <c r="F29">
+        <v>0.00398608033584637</v>
+      </c>
+      <c r="G29">
+        <v>0.01388795262372035</v>
+      </c>
+      <c r="H29">
+        <v>-0.1129102777034174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.037922041410111</v>
+        <v>0.04197553416314488</v>
       </c>
       <c r="C30">
-        <v>0.03760553639513266</v>
+        <v>0.05866307054715356</v>
       </c>
       <c r="D30">
-        <v>0.166963546346533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1791329943352843</v>
+      </c>
+      <c r="E30">
+        <v>0.01946833684363437</v>
+      </c>
+      <c r="F30">
+        <v>0.005865314199555596</v>
+      </c>
+      <c r="G30">
+        <v>-0.02681759427259129</v>
+      </c>
+      <c r="H30">
+        <v>-0.009696890265679797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06699573976936626</v>
+        <v>0.05560144481259417</v>
       </c>
       <c r="C31">
-        <v>0.04948152500387623</v>
+        <v>0.07017345574580762</v>
       </c>
       <c r="D31">
-        <v>0.06964310796072204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05759864110081841</v>
+      </c>
+      <c r="E31">
+        <v>0.03335488341669786</v>
+      </c>
+      <c r="F31">
+        <v>0.03311797190130928</v>
+      </c>
+      <c r="G31">
+        <v>0.02354359206214885</v>
+      </c>
+      <c r="H31">
+        <v>-0.04625941365034266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.005370530611303536</v>
+        <v>0.0123357908448066</v>
       </c>
       <c r="C32">
-        <v>0.009505295265848587</v>
+        <v>0.01844361682338081</v>
       </c>
       <c r="D32">
-        <v>0.05961844616074637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09975871383128299</v>
+      </c>
+      <c r="E32">
+        <v>0.09083167783845149</v>
+      </c>
+      <c r="F32">
+        <v>0.0147147210840107</v>
+      </c>
+      <c r="G32">
+        <v>0.02878282934342959</v>
+      </c>
+      <c r="H32">
+        <v>-0.0898790931483983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02549487475551105</v>
+        <v>0.02412321119216891</v>
       </c>
       <c r="C33">
-        <v>0.02269865816117696</v>
+        <v>0.04113110342137827</v>
       </c>
       <c r="D33">
-        <v>0.1338213841000546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1328036505706666</v>
+      </c>
+      <c r="E33">
+        <v>0.04361772481248479</v>
+      </c>
+      <c r="F33">
+        <v>0.01389232468246089</v>
+      </c>
+      <c r="G33">
+        <v>0.001172203739490768</v>
+      </c>
+      <c r="H33">
+        <v>-0.07083787472396999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03311814101266856</v>
+        <v>0.02704715303457745</v>
       </c>
       <c r="C34">
-        <v>0.05987182017756122</v>
+        <v>0.06003984146138212</v>
       </c>
       <c r="D34">
-        <v>0.06840192093421422</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05741787479275966</v>
+      </c>
+      <c r="E34">
+        <v>-0.004163806921472803</v>
+      </c>
+      <c r="F34">
+        <v>-0.01155654873521283</v>
+      </c>
+      <c r="G34">
+        <v>0.003692135685022652</v>
+      </c>
+      <c r="H34">
+        <v>-0.07851570758498988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005316672684769262</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0006450097970887687</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.004023478453111146</v>
+      </c>
+      <c r="E35">
+        <v>0.0002691730873076686</v>
+      </c>
+      <c r="F35">
+        <v>2.048852448806738e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.001747258818756218</v>
+      </c>
+      <c r="H35">
+        <v>-0.002249338177084973</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02012290506600993</v>
+        <v>0.01855115900227819</v>
       </c>
       <c r="C36">
-        <v>0.002025068647905977</v>
+        <v>0.01414469357720272</v>
       </c>
       <c r="D36">
-        <v>0.07297724006007887</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07842170373154161</v>
+      </c>
+      <c r="E36">
+        <v>0.03483021027226253</v>
+      </c>
+      <c r="F36">
+        <v>-0.00412079096552738</v>
+      </c>
+      <c r="G36">
+        <v>0.01199342926352216</v>
+      </c>
+      <c r="H36">
+        <v>-0.05875189628524361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02573376886191642</v>
+        <v>0.02098638986953182</v>
       </c>
       <c r="C38">
-        <v>0.01724741153539189</v>
+        <v>0.02229737640820973</v>
       </c>
       <c r="D38">
-        <v>0.04848431994617165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05647921067431187</v>
+      </c>
+      <c r="E38">
+        <v>0.03688652629934069</v>
+      </c>
+      <c r="F38">
+        <v>-0.004995290811466966</v>
+      </c>
+      <c r="G38">
+        <v>-0.03714794225580669</v>
+      </c>
+      <c r="H38">
+        <v>-0.03862229361004609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03926704279982148</v>
+        <v>0.03615003775300747</v>
       </c>
       <c r="C39">
-        <v>0.05012014736633191</v>
+        <v>0.06322531855765075</v>
       </c>
       <c r="D39">
-        <v>0.08920391687470654</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1045370166825922</v>
+      </c>
+      <c r="E39">
+        <v>0.00586780946077863</v>
+      </c>
+      <c r="F39">
+        <v>-0.02525320975054962</v>
+      </c>
+      <c r="G39">
+        <v>-0.000752349628362665</v>
+      </c>
+      <c r="H39">
+        <v>-0.08903807474618763</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01663098572189335</v>
+        <v>0.01412841644465663</v>
       </c>
       <c r="C40">
-        <v>0.04390742815056744</v>
+        <v>0.03743398201677963</v>
       </c>
       <c r="D40">
-        <v>0.07655390683265706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08546059108923119</v>
+      </c>
+      <c r="E40">
+        <v>0.06429470535535042</v>
+      </c>
+      <c r="F40">
+        <v>0.0631259904716123</v>
+      </c>
+      <c r="G40">
+        <v>-0.05176407193487337</v>
+      </c>
+      <c r="H40">
+        <v>-0.164851455454214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02418472211559653</v>
+        <v>0.0226316339520521</v>
       </c>
       <c r="C41">
-        <v>-0.008510753417787882</v>
+        <v>0.007768183400928957</v>
       </c>
       <c r="D41">
-        <v>0.06612521798621744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05641351178368427</v>
+      </c>
+      <c r="E41">
+        <v>0.05297698370403986</v>
+      </c>
+      <c r="F41">
+        <v>0.0003315489879839834</v>
+      </c>
+      <c r="G41">
+        <v>-0.009464021038273247</v>
+      </c>
+      <c r="H41">
+        <v>-0.05226088905695618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03130032612411607</v>
+        <v>0.02424132391707466</v>
       </c>
       <c r="C43">
-        <v>0.00279437821206951</v>
+        <v>0.01802208537890904</v>
       </c>
       <c r="D43">
-        <v>0.1068998163277191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08715529066926907</v>
+      </c>
+      <c r="E43">
+        <v>0.03500855974445102</v>
+      </c>
+      <c r="F43">
+        <v>0.00315655463782687</v>
+      </c>
+      <c r="G43">
+        <v>-0.009980282451074296</v>
+      </c>
+      <c r="H43">
+        <v>-0.07212154257799801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01344802948933641</v>
+        <v>0.01690821773180752</v>
       </c>
       <c r="C44">
-        <v>0.03964807903864462</v>
+        <v>0.04100974710931353</v>
       </c>
       <c r="D44">
-        <v>0.08172509311955253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09881623731292583</v>
+      </c>
+      <c r="E44">
+        <v>0.06927095585259065</v>
+      </c>
+      <c r="F44">
+        <v>0.004842271870457396</v>
+      </c>
+      <c r="G44">
+        <v>0.001986548192472325</v>
+      </c>
+      <c r="H44">
+        <v>-0.07672550106130904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01857580484158297</v>
+        <v>0.01580920859407988</v>
       </c>
       <c r="C46">
-        <v>0.0182242283957482</v>
+        <v>0.02751595959569589</v>
       </c>
       <c r="D46">
-        <v>0.07563782530778132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08906800696091528</v>
+      </c>
+      <c r="E46">
+        <v>0.03989853879902455</v>
+      </c>
+      <c r="F46">
+        <v>-0.01700118292935743</v>
+      </c>
+      <c r="G46">
+        <v>0.0222667327772279</v>
+      </c>
+      <c r="H46">
+        <v>-0.1148332397256251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09517299425424411</v>
+        <v>0.08502710636749708</v>
       </c>
       <c r="C47">
-        <v>0.06850569411203475</v>
+        <v>0.08859718623032606</v>
       </c>
       <c r="D47">
-        <v>0.0398190356618217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03300346294777674</v>
+      </c>
+      <c r="E47">
+        <v>0.03670860455990876</v>
+      </c>
+      <c r="F47">
+        <v>0.0210351297984499</v>
+      </c>
+      <c r="G47">
+        <v>0.04252672971268689</v>
+      </c>
+      <c r="H47">
+        <v>-0.01079090578241802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01591545800069314</v>
+        <v>0.01695737148748003</v>
       </c>
       <c r="C48">
-        <v>0.01258333199342602</v>
+        <v>0.01923804774929633</v>
       </c>
       <c r="D48">
-        <v>0.06473175330369903</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07400949937208881</v>
+      </c>
+      <c r="E48">
+        <v>0.04977618886297252</v>
+      </c>
+      <c r="F48">
+        <v>-0.006305263935891559</v>
+      </c>
+      <c r="G48">
+        <v>0.009219855066816787</v>
+      </c>
+      <c r="H48">
+        <v>-0.06373822668528387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07303401835987638</v>
+        <v>0.05815413654350778</v>
       </c>
       <c r="C50">
-        <v>0.06225577016162004</v>
+        <v>0.06803909132011512</v>
       </c>
       <c r="D50">
-        <v>0.06075139384993276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05546991390881097</v>
+      </c>
+      <c r="E50">
+        <v>0.04560089134646961</v>
+      </c>
+      <c r="F50">
+        <v>0.04003039000181082</v>
+      </c>
+      <c r="G50">
+        <v>-0.01336152886848214</v>
+      </c>
+      <c r="H50">
+        <v>-0.04598394298849211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01094300024436588</v>
+        <v>0.008899375994731871</v>
       </c>
       <c r="C51">
-        <v>0.01747539960409264</v>
+        <v>0.01888659562079753</v>
       </c>
       <c r="D51">
-        <v>0.08196028616733811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08920770012701403</v>
+      </c>
+      <c r="E51">
+        <v>0.01312816435803576</v>
+      </c>
+      <c r="F51">
+        <v>-0.002145455735747427</v>
+      </c>
+      <c r="G51">
+        <v>-0.01378391920754266</v>
+      </c>
+      <c r="H51">
+        <v>-0.07962620271411788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08157074321508836</v>
+        <v>0.08638166695573114</v>
       </c>
       <c r="C53">
-        <v>0.09268577891591624</v>
+        <v>0.1016541136480247</v>
       </c>
       <c r="D53">
-        <v>0.01911539852473687</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01057310643487378</v>
+      </c>
+      <c r="E53">
+        <v>0.106239321741707</v>
+      </c>
+      <c r="F53">
+        <v>0.04305549185634652</v>
+      </c>
+      <c r="G53">
+        <v>0.08994561745676023</v>
+      </c>
+      <c r="H53">
+        <v>-0.0004335011918433154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03081863846654251</v>
+        <v>0.02627872658531204</v>
       </c>
       <c r="C54">
-        <v>0.03114466106905649</v>
+        <v>0.0352902124139288</v>
       </c>
       <c r="D54">
-        <v>0.08784005894624049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08821615198112794</v>
+      </c>
+      <c r="E54">
+        <v>0.04195340972839059</v>
+      </c>
+      <c r="F54">
+        <v>-0.01498269966648521</v>
+      </c>
+      <c r="G54">
+        <v>-0.01272324882961369</v>
+      </c>
+      <c r="H54">
+        <v>-0.1173995334140199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08982652068616781</v>
+        <v>0.08526568295217957</v>
       </c>
       <c r="C55">
-        <v>0.06581962620840767</v>
+        <v>0.08059307080604879</v>
       </c>
       <c r="D55">
-        <v>-0.004837323911302686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01016391225367535</v>
+      </c>
+      <c r="E55">
+        <v>0.06065772265377739</v>
+      </c>
+      <c r="F55">
+        <v>0.0409069545559707</v>
+      </c>
+      <c r="G55">
+        <v>0.04419966186529831</v>
+      </c>
+      <c r="H55">
+        <v>0.0110294071676171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1373186684847172</v>
+        <v>0.1304369547514193</v>
       </c>
       <c r="C56">
-        <v>0.1003934431839126</v>
+        <v>0.1246662700216986</v>
       </c>
       <c r="D56">
-        <v>0.004663364413298374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.007102257989083822</v>
+      </c>
+      <c r="E56">
+        <v>0.06361008616640436</v>
+      </c>
+      <c r="F56">
+        <v>0.03103623061259193</v>
+      </c>
+      <c r="G56">
+        <v>0.0490623568561771</v>
+      </c>
+      <c r="H56">
+        <v>0.01003539040269422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.02532384473782633</v>
+        <v>0.03007372239866163</v>
       </c>
       <c r="C58">
-        <v>-0.02894099225263737</v>
+        <v>0.01551112514308424</v>
       </c>
       <c r="D58">
-        <v>0.3626007667191076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3808819209467056</v>
+      </c>
+      <c r="E58">
+        <v>0.2012683087825338</v>
+      </c>
+      <c r="F58">
+        <v>0.145918524599996</v>
+      </c>
+      <c r="G58">
+        <v>-0.2969665612434346</v>
+      </c>
+      <c r="H58">
+        <v>0.3990357499624901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1414668380104759</v>
+        <v>0.1747496026573513</v>
       </c>
       <c r="C59">
-        <v>-0.1907151094093135</v>
+        <v>-0.1708140169402447</v>
       </c>
       <c r="D59">
-        <v>0.0271762993002295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05047193494018616</v>
+      </c>
+      <c r="E59">
+        <v>0.01837565351298874</v>
+      </c>
+      <c r="F59">
+        <v>-0.04214907510548664</v>
+      </c>
+      <c r="G59">
+        <v>-0.001569777259819956</v>
+      </c>
+      <c r="H59">
+        <v>0.02555285026379333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2489590540175292</v>
+        <v>0.2283025453866029</v>
       </c>
       <c r="C60">
-        <v>0.06588623630748378</v>
+        <v>0.09944452893104244</v>
       </c>
       <c r="D60">
-        <v>0.1764565964040174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1136270718016104</v>
+      </c>
+      <c r="E60">
+        <v>-0.3687778428233068</v>
+      </c>
+      <c r="F60">
+        <v>0.02865688515471317</v>
+      </c>
+      <c r="G60">
+        <v>0.0355530731383228</v>
+      </c>
+      <c r="H60">
+        <v>0.1117338992623084</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04589058723179591</v>
+        <v>0.04088508034111772</v>
       </c>
       <c r="C61">
-        <v>0.05150102010851795</v>
+        <v>0.06009189244333548</v>
       </c>
       <c r="D61">
-        <v>0.09888847848292903</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09389717488039294</v>
+      </c>
+      <c r="E61">
+        <v>0.00254977535027153</v>
+      </c>
+      <c r="F61">
+        <v>-0.01775105624439579</v>
+      </c>
+      <c r="G61">
+        <v>0.01332387720947182</v>
+      </c>
+      <c r="H61">
+        <v>-0.08112611999084623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01590533299845881</v>
+        <v>0.01444088362398981</v>
       </c>
       <c r="C63">
-        <v>0.02113893115412898</v>
+        <v>0.03278194885524992</v>
       </c>
       <c r="D63">
-        <v>0.06148088555656635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06999545814032822</v>
+      </c>
+      <c r="E63">
+        <v>0.0309533370808922</v>
+      </c>
+      <c r="F63">
+        <v>0.01599489487154718</v>
+      </c>
+      <c r="G63">
+        <v>-0.0008230093317839263</v>
+      </c>
+      <c r="H63">
+        <v>-0.05463596250894934</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05661771963278477</v>
+        <v>0.05442013244229858</v>
       </c>
       <c r="C64">
-        <v>0.06416822690415283</v>
+        <v>0.080293168185933</v>
       </c>
       <c r="D64">
-        <v>0.058677703488344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05384043404957566</v>
+      </c>
+      <c r="E64">
+        <v>0.02619467082233291</v>
+      </c>
+      <c r="F64">
+        <v>-0.01555864911056241</v>
+      </c>
+      <c r="G64">
+        <v>0.05749936053395882</v>
+      </c>
+      <c r="H64">
+        <v>-0.05922560019248894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0543812497025918</v>
+        <v>0.04828585252975712</v>
       </c>
       <c r="C65">
-        <v>0.004325348252561293</v>
+        <v>0.02441624590407311</v>
       </c>
       <c r="D65">
-        <v>0.1107575254879113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1156136366951166</v>
+      </c>
+      <c r="E65">
+        <v>0.002516893416163527</v>
+      </c>
+      <c r="F65">
+        <v>0.01314793831943158</v>
+      </c>
+      <c r="G65">
+        <v>-0.03098773264446711</v>
+      </c>
+      <c r="H65">
+        <v>0.02333660741740948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04424444436687722</v>
+        <v>0.04095646687938752</v>
       </c>
       <c r="C66">
-        <v>0.05413936544297882</v>
+        <v>0.07252158087512618</v>
       </c>
       <c r="D66">
-        <v>0.1125650990666987</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.131382217831274</v>
+      </c>
+      <c r="E66">
+        <v>0.01229455213433254</v>
+      </c>
+      <c r="F66">
+        <v>-0.01233267800957919</v>
+      </c>
+      <c r="G66">
+        <v>-0.01123142047835848</v>
+      </c>
+      <c r="H66">
+        <v>-0.0611777506642532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04387359512712311</v>
+        <v>0.03750915943161923</v>
       </c>
       <c r="C67">
-        <v>0.02439015431361136</v>
+        <v>0.02830908056278763</v>
       </c>
       <c r="D67">
-        <v>0.01864374705117405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01770992329129396</v>
+      </c>
+      <c r="E67">
+        <v>0.01656580883573909</v>
+      </c>
+      <c r="F67">
+        <v>-0.0002355657936187957</v>
+      </c>
+      <c r="G67">
+        <v>-0.03329258361989466</v>
+      </c>
+      <c r="H67">
+        <v>-0.03817282320878478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1647526762265222</v>
+        <v>0.1935033517650124</v>
       </c>
       <c r="C68">
-        <v>-0.2466266609998644</v>
+        <v>-0.2035509625342278</v>
       </c>
       <c r="D68">
-        <v>-0.02309461990989611</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01110939727168518</v>
+      </c>
+      <c r="E68">
+        <v>0.05496148112239613</v>
+      </c>
+      <c r="F68">
+        <v>0.0270998381452894</v>
+      </c>
+      <c r="G68">
+        <v>-0.008398407144046481</v>
+      </c>
+      <c r="H68">
+        <v>-0.001039408464169861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08310256925455427</v>
+        <v>0.07650844354759513</v>
       </c>
       <c r="C69">
-        <v>0.08339268612025241</v>
+        <v>0.0975543680323285</v>
       </c>
       <c r="D69">
-        <v>0.05813654860110433</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04575128000006009</v>
+      </c>
+      <c r="E69">
+        <v>0.02642325979321662</v>
+      </c>
+      <c r="F69">
+        <v>0.004395010038871361</v>
+      </c>
+      <c r="G69">
+        <v>0.0330925273274541</v>
+      </c>
+      <c r="H69">
+        <v>-0.02977155081088263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1416222199573247</v>
+        <v>0.1789930871428202</v>
       </c>
       <c r="C71">
-        <v>-0.2429818462190905</v>
+        <v>-0.2143255600645396</v>
       </c>
       <c r="D71">
-        <v>0.01486863811101757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0340466423495021</v>
+      </c>
+      <c r="E71">
+        <v>0.05528732701467073</v>
+      </c>
+      <c r="F71">
+        <v>0.03149826974944468</v>
+      </c>
+      <c r="G71">
+        <v>0.02341746373422444</v>
+      </c>
+      <c r="H71">
+        <v>-0.02271566783884655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0959374378515026</v>
+        <v>0.09835250242692807</v>
       </c>
       <c r="C72">
-        <v>0.03707120499691306</v>
+        <v>0.06646591250583078</v>
       </c>
       <c r="D72">
-        <v>0.09089136589588931</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09629515760577635</v>
+      </c>
+      <c r="E72">
+        <v>-0.03433199944782353</v>
+      </c>
+      <c r="F72">
+        <v>0.03857792241237543</v>
+      </c>
+      <c r="G72">
+        <v>0.03594551789454777</v>
+      </c>
+      <c r="H72">
+        <v>-0.03893469736893486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2764986160742088</v>
+        <v>0.2460664319273308</v>
       </c>
       <c r="C73">
-        <v>0.01173978438603794</v>
+        <v>0.07964844967609207</v>
       </c>
       <c r="D73">
-        <v>0.2816996951325454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1757370880154797</v>
+      </c>
+      <c r="E73">
+        <v>-0.6654514160191798</v>
+      </c>
+      <c r="F73">
+        <v>0.03127850130230177</v>
+      </c>
+      <c r="G73">
+        <v>-0.003321335631327361</v>
+      </c>
+      <c r="H73">
+        <v>0.152303980737036</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1092040827996158</v>
+        <v>0.0999976208484126</v>
       </c>
       <c r="C74">
-        <v>0.07840390503249725</v>
+        <v>0.09142836079321046</v>
       </c>
       <c r="D74">
-        <v>0.01964940582987476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.003951350751544304</v>
+      </c>
+      <c r="E74">
+        <v>0.07977271154097768</v>
+      </c>
+      <c r="F74">
+        <v>0.05639351915030403</v>
+      </c>
+      <c r="G74">
+        <v>0.05999311375952195</v>
+      </c>
+      <c r="H74">
+        <v>0.03465296197611186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2473598960882572</v>
+        <v>0.2302805932101956</v>
       </c>
       <c r="C75">
-        <v>0.124961976303883</v>
+        <v>0.1669386422813606</v>
       </c>
       <c r="D75">
-        <v>-0.06493700496629734</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09340977249623171</v>
+      </c>
+      <c r="E75">
+        <v>0.1030009689532431</v>
+      </c>
+      <c r="F75">
+        <v>0.003258104625782395</v>
+      </c>
+      <c r="G75">
+        <v>0.05103647682538554</v>
+      </c>
+      <c r="H75">
+        <v>0.1182509435328917</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.136409442162632</v>
+        <v>0.1271201640242906</v>
       </c>
       <c r="C76">
-        <v>0.08791386738194618</v>
+        <v>0.1135342482190233</v>
       </c>
       <c r="D76">
-        <v>-0.003249221851639726</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01502236483308721</v>
+      </c>
+      <c r="E76">
+        <v>0.1164618301566627</v>
+      </c>
+      <c r="F76">
+        <v>0.02016001586557886</v>
+      </c>
+      <c r="G76">
+        <v>0.04780840051835238</v>
+      </c>
+      <c r="H76">
+        <v>0.002352878981667221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06428549733690656</v>
+        <v>0.06089842883956025</v>
       </c>
       <c r="C77">
-        <v>0.05698034145914181</v>
+        <v>0.07007063692089009</v>
       </c>
       <c r="D77">
-        <v>0.03731925528254591</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1266123100355373</v>
+      </c>
+      <c r="E77">
+        <v>0.2043164545221806</v>
+      </c>
+      <c r="F77">
+        <v>-0.2482598902622291</v>
+      </c>
+      <c r="G77">
+        <v>-0.2228902308737002</v>
+      </c>
+      <c r="H77">
+        <v>0.3677346930074138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04137032393015813</v>
+        <v>0.0417249305309302</v>
       </c>
       <c r="C78">
-        <v>0.05314561066236933</v>
+        <v>0.06445762417021587</v>
       </c>
       <c r="D78">
-        <v>0.1180602134121848</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1312083528715431</v>
+      </c>
+      <c r="E78">
+        <v>0.01483101611021465</v>
+      </c>
+      <c r="F78">
+        <v>0.008223427325389146</v>
+      </c>
+      <c r="G78">
+        <v>0.02049701390410808</v>
+      </c>
+      <c r="H78">
+        <v>-0.02633383145138934</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.001206894921269527</v>
+        <v>0.04355983546685335</v>
       </c>
       <c r="C79">
-        <v>0.06061896537657783</v>
+        <v>0.08838264006931014</v>
       </c>
       <c r="D79">
-        <v>0.03545824321548732</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02311857769382094</v>
+      </c>
+      <c r="E79">
+        <v>0.1924773761818725</v>
+      </c>
+      <c r="F79">
+        <v>0.1206875300391548</v>
+      </c>
+      <c r="G79">
+        <v>0.686643731491577</v>
+      </c>
+      <c r="H79">
+        <v>0.4034024878955798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03096052750092666</v>
+        <v>0.02447872831618157</v>
       </c>
       <c r="C80">
-        <v>0.02786128920806325</v>
+        <v>0.04262831314686819</v>
       </c>
       <c r="D80">
-        <v>0.02360619319634183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03431500825229276</v>
+      </c>
+      <c r="E80">
+        <v>0.02150032085144897</v>
+      </c>
+      <c r="F80">
+        <v>-0.03265953312036714</v>
+      </c>
+      <c r="G80">
+        <v>-0.04819578302254755</v>
+      </c>
+      <c r="H80">
+        <v>-0.02678923307457485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1462629315695814</v>
+        <v>0.1298323398409444</v>
       </c>
       <c r="C81">
-        <v>0.09925653487901415</v>
+        <v>0.1181954361512558</v>
       </c>
       <c r="D81">
-        <v>-0.04980557113455819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0664242242001733</v>
+      </c>
+      <c r="E81">
+        <v>0.1182881347252554</v>
+      </c>
+      <c r="F81">
+        <v>0.0203592675994338</v>
+      </c>
+      <c r="G81">
+        <v>0.04411171372044249</v>
+      </c>
+      <c r="H81">
+        <v>0.02493350000634919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2997487450984685</v>
+        <v>0.2530268135713526</v>
       </c>
       <c r="C82">
-        <v>0.2646646991204439</v>
+        <v>0.2555919181761304</v>
       </c>
       <c r="D82">
-        <v>-0.2244139964519275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2208726990305951</v>
+      </c>
+      <c r="E82">
+        <v>-0.01666708357159653</v>
+      </c>
+      <c r="F82">
+        <v>0.04551682753811116</v>
+      </c>
+      <c r="G82">
+        <v>0.13288273472722</v>
+      </c>
+      <c r="H82">
+        <v>-0.4263011292611393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02805526076746405</v>
+        <v>0.02186826756588226</v>
       </c>
       <c r="C83">
-        <v>0.04566624308786876</v>
+        <v>0.05192847249541558</v>
       </c>
       <c r="D83">
-        <v>0.04577565554122384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05113869000089528</v>
+      </c>
+      <c r="E83">
+        <v>0.01184315062035861</v>
+      </c>
+      <c r="F83">
+        <v>-0.02292971564110794</v>
+      </c>
+      <c r="G83">
+        <v>-0.01181171877070821</v>
+      </c>
+      <c r="H83">
+        <v>-0.02062260603732327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002484873788871177</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004794471580791557</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01662059595105488</v>
+      </c>
+      <c r="E84">
+        <v>0.01570206896373592</v>
+      </c>
+      <c r="F84">
+        <v>0.007868260958318114</v>
+      </c>
+      <c r="G84">
+        <v>-0.0074714611471031</v>
+      </c>
+      <c r="H84">
+        <v>-0.00364833786314772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1807927312731675</v>
+        <v>0.1597218126181974</v>
       </c>
       <c r="C85">
-        <v>0.100824970996523</v>
+        <v>0.13501187231322</v>
       </c>
       <c r="D85">
-        <v>-0.03503942501648218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06650663776093654</v>
+      </c>
+      <c r="E85">
+        <v>0.05095536723892393</v>
+      </c>
+      <c r="F85">
+        <v>0.03526918056102462</v>
+      </c>
+      <c r="G85">
+        <v>0.08607010515056766</v>
+      </c>
+      <c r="H85">
+        <v>0.09369419621037818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01675937673271861</v>
+        <v>0.01879878038938192</v>
       </c>
       <c r="C86">
-        <v>0.0204093212097029</v>
+        <v>0.02232686542801098</v>
       </c>
       <c r="D86">
-        <v>0.1364894906185312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1267259675727483</v>
+      </c>
+      <c r="E86">
+        <v>0.01205304552280654</v>
+      </c>
+      <c r="F86">
+        <v>-0.01316313094839806</v>
+      </c>
+      <c r="G86">
+        <v>-0.00174667401872251</v>
+      </c>
+      <c r="H86">
+        <v>-0.04784324235715306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02777463885619964</v>
+        <v>0.03325386645107372</v>
       </c>
       <c r="C87">
-        <v>0.003161835837393585</v>
+        <v>0.02473954004916911</v>
       </c>
       <c r="D87">
-        <v>0.0918790451698534</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1332165520482489</v>
+      </c>
+      <c r="E87">
+        <v>0.08197221207922448</v>
+      </c>
+      <c r="F87">
+        <v>-0.01172701884652867</v>
+      </c>
+      <c r="G87">
+        <v>-0.01487714193606146</v>
+      </c>
+      <c r="H87">
+        <v>-0.03183341579796502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07967926536797988</v>
+        <v>0.07063723147219418</v>
       </c>
       <c r="C88">
-        <v>0.04386725141498369</v>
+        <v>0.05804243762873534</v>
       </c>
       <c r="D88">
-        <v>0.03600825895933512</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01938016392133973</v>
+      </c>
+      <c r="E88">
+        <v>0.01787926548947072</v>
+      </c>
+      <c r="F88">
+        <v>0.002229264123753023</v>
+      </c>
+      <c r="G88">
+        <v>0.007102952340801759</v>
+      </c>
+      <c r="H88">
+        <v>-0.04877699454065686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2064264790783011</v>
+        <v>0.274005473614068</v>
       </c>
       <c r="C89">
-        <v>-0.3768523980416134</v>
+        <v>-0.3561050502597398</v>
       </c>
       <c r="D89">
-        <v>-0.03447241052702332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.006294139798645697</v>
+      </c>
+      <c r="E89">
+        <v>0.04639087211886294</v>
+      </c>
+      <c r="F89">
+        <v>-0.04778944067617888</v>
+      </c>
+      <c r="G89">
+        <v>0.0503686437692027</v>
+      </c>
+      <c r="H89">
+        <v>-0.07372181679361151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2009501544842947</v>
+        <v>0.2389048172943951</v>
       </c>
       <c r="C90">
-        <v>-0.2966694946842112</v>
+        <v>-0.2573524959604004</v>
       </c>
       <c r="D90">
-        <v>-0.03435088482006524</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0136107778043811</v>
+      </c>
+      <c r="E90">
+        <v>0.04535167625736069</v>
+      </c>
+      <c r="F90">
+        <v>0.01163280770004434</v>
+      </c>
+      <c r="G90">
+        <v>-0.04552044224484417</v>
+      </c>
+      <c r="H90">
+        <v>-0.04652087135517437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1797617993221961</v>
+        <v>0.1620275797637955</v>
       </c>
       <c r="C91">
-        <v>0.1420829089273394</v>
+        <v>0.1582174932948255</v>
       </c>
       <c r="D91">
-        <v>-0.0611221348224921</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08427607576318842</v>
+      </c>
+      <c r="E91">
+        <v>0.1075411767227906</v>
+      </c>
+      <c r="F91">
+        <v>0.02517025014093806</v>
+      </c>
+      <c r="G91">
+        <v>0.08709171614772139</v>
+      </c>
+      <c r="H91">
+        <v>0.09701495720150452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1720169834609011</v>
+        <v>0.2178522184728975</v>
       </c>
       <c r="C92">
-        <v>-0.2856785806081037</v>
+        <v>-0.272435206789619</v>
       </c>
       <c r="D92">
-        <v>0.002674816841774332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02627931153817752</v>
+      </c>
+      <c r="E92">
+        <v>0.09116181423686413</v>
+      </c>
+      <c r="F92">
+        <v>-0.01770995288329406</v>
+      </c>
+      <c r="G92">
+        <v>-0.01078733478781199</v>
+      </c>
+      <c r="H92">
+        <v>-0.03769109859829097</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2336624314241044</v>
+        <v>0.2655299430041686</v>
       </c>
       <c r="C93">
-        <v>-0.3152515233438408</v>
+        <v>-0.2717293042542943</v>
       </c>
       <c r="D93">
-        <v>-0.00662269089774529</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005563295008925216</v>
+      </c>
+      <c r="E93">
+        <v>0.01907523936657189</v>
+      </c>
+      <c r="F93">
+        <v>0.02320274633215203</v>
+      </c>
+      <c r="G93">
+        <v>0.0003338553028922057</v>
+      </c>
+      <c r="H93">
+        <v>0.0025257039741244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3941265820136207</v>
+        <v>0.3420291026539166</v>
       </c>
       <c r="C94">
-        <v>0.2279821708733437</v>
+        <v>0.2653729294097687</v>
       </c>
       <c r="D94">
-        <v>-0.4609623460846425</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4329309760126323</v>
+      </c>
+      <c r="E94">
+        <v>0.09105424704822826</v>
+      </c>
+      <c r="F94">
+        <v>-0.01955779108853058</v>
+      </c>
+      <c r="G94">
+        <v>-0.5058331450930541</v>
+      </c>
+      <c r="H94">
+        <v>0.09484029457038794</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07632779382100677</v>
+        <v>0.06721276703421623</v>
       </c>
       <c r="C95">
-        <v>0.06778359532376993</v>
+        <v>0.06440056553807438</v>
       </c>
       <c r="D95">
-        <v>0.1082431596949394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08048730572724233</v>
+      </c>
+      <c r="E95">
+        <v>-0.01053797098176406</v>
+      </c>
+      <c r="F95">
+        <v>-0.9183689183936036</v>
+      </c>
+      <c r="G95">
+        <v>0.1230957704340552</v>
+      </c>
+      <c r="H95">
+        <v>0.01336543542502406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1755371823223345</v>
+        <v>0.1634834720728268</v>
       </c>
       <c r="C98">
-        <v>0.02360800421532677</v>
+        <v>0.06173575123055738</v>
       </c>
       <c r="D98">
-        <v>0.1610859752383225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1313781625053552</v>
+      </c>
+      <c r="E98">
+        <v>-0.3175445995055477</v>
+      </c>
+      <c r="F98">
+        <v>0.05495820374347228</v>
+      </c>
+      <c r="G98">
+        <v>0.04466057487785748</v>
+      </c>
+      <c r="H98">
+        <v>0.05679080690867555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005382870928222472</v>
+        <v>0.006331014680383592</v>
       </c>
       <c r="C101">
-        <v>0.01874519845104279</v>
+        <v>0.02168123761757864</v>
       </c>
       <c r="D101">
-        <v>0.06623942698243701</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08108205414551856</v>
+      </c>
+      <c r="E101">
+        <v>0.03389704388374702</v>
+      </c>
+      <c r="F101">
+        <v>0.003135217471970337</v>
+      </c>
+      <c r="G101">
+        <v>0.01476169515819336</v>
+      </c>
+      <c r="H101">
+        <v>-0.1130701242833204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1227381666566536</v>
+        <v>0.1082122034857178</v>
       </c>
       <c r="C102">
-        <v>0.1162774955412331</v>
+        <v>0.11982447421071</v>
       </c>
       <c r="D102">
-        <v>-0.04158513259065754</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0562660131132621</v>
+      </c>
+      <c r="E102">
+        <v>0.03367104413809305</v>
+      </c>
+      <c r="F102">
+        <v>-0.02102452737359159</v>
+      </c>
+      <c r="G102">
+        <v>0.03538320951714765</v>
+      </c>
+      <c r="H102">
+        <v>-0.01838789127771661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
